--- a/biology/Zoologie/Halichoeres_leptotaenia/Halichoeres_leptotaenia.xlsx
+++ b/biology/Zoologie/Halichoeres_leptotaenia/Halichoeres_leptotaenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halichoeres leptotaenia est une espèce de poissons osseux de petite taille de la famille des Labridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Halichoeres leptotaenia a été décrite en 1994 par John Ernest Randall et John L. Earle (d).
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Halichoeres leptotaenia est une espèce marine endémique au golfe Persique[1]. Elle se rencontre entre 2 et 15 m de profondeur[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halichoeres leptotaenia est une espèce marine endémique au golfe Persique. Elle se rencontre entre 2 et 15 m de profondeur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson peut atteindre une longueur totale de 10,4 cm[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson peut atteindre une longueur totale de 10,4 cm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du grec ancien λεπτός, leptós, « pelé, mince, ténu », et ταινία, tainía, « bandelette », fait référence aux trois fines rayures rose saumon présentes sur le corps [2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du grec ancien λεπτός, leptós, « pelé, mince, ténu », et ταινία, tainía, « bandelette », fait référence aux trois fines rayures rose saumon présentes sur le corps .
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) John E. Randall et John L. Earle, « Three new wrasses of the genus Halichoeres (Perciformes: Labridae) from Oman », Fauna of Saudi Arabia, vol. 14,‎ 1994, p. 287-301 (ISSN 1660-346X).</t>
         </is>
